--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Fzd4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H2">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I2">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J2">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.48350866666667</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N2">
-        <v>58.450526</v>
+        <v>104.939308</v>
       </c>
       <c r="O2">
-        <v>0.3081250754721726</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P2">
-        <v>0.3081250754721727</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q2">
-        <v>4.177426620705555</v>
+        <v>25.216810773092</v>
       </c>
       <c r="R2">
-        <v>37.59683958635</v>
+        <v>226.951296957828</v>
       </c>
       <c r="S2">
-        <v>0.002653371894976233</v>
+        <v>0.01239380555866976</v>
       </c>
       <c r="T2">
-        <v>0.002653371894976234</v>
+        <v>0.01239380555866976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H3">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I3">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J3">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +617,25 @@
         <v>20.343383</v>
       </c>
       <c r="N3">
-        <v>61.03014899999999</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O3">
-        <v>0.3217236961512192</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P3">
-        <v>0.3217236961512193</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q3">
-        <v>4.361790843391667</v>
+        <v>14.665483774551</v>
       </c>
       <c r="R3">
-        <v>39.256117590525</v>
+        <v>131.989353970959</v>
       </c>
       <c r="S3">
-        <v>0.002770474334188402</v>
+        <v>0.007207935847286543</v>
       </c>
       <c r="T3">
-        <v>0.002770474334188402</v>
+        <v>0.007207935847286543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H4">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I4">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J4">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.275017</v>
+        <v>25.035323</v>
       </c>
       <c r="N4">
-        <v>69.825051</v>
+        <v>75.105969</v>
       </c>
       <c r="O4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q4">
-        <v>4.990357603275</v>
+        <v>18.047889244731</v>
       </c>
       <c r="R4">
-        <v>44.913218429475</v>
+        <v>162.431003202579</v>
       </c>
       <c r="S4">
-        <v>0.003169720455358813</v>
+        <v>0.008870353672252902</v>
       </c>
       <c r="T4">
-        <v>0.003169720455358814</v>
+        <v>0.008870353672252904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +711,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2144083333333333</v>
+        <v>23.971258</v>
       </c>
       <c r="H5">
-        <v>0.643225</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I5">
-        <v>0.008611346839948651</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J5">
-        <v>0.008611346839948651</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1305583333333333</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N5">
-        <v>0.391675</v>
+        <v>104.939308</v>
       </c>
       <c r="O5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q5">
-        <v>0.02799279465277778</v>
+        <v>838.5090754698213</v>
       </c>
       <c r="R5">
-        <v>0.251935151875</v>
+        <v>7546.581679228391</v>
       </c>
       <c r="S5">
-        <v>1.77801554252021E-05</v>
+        <v>0.4121186669506279</v>
       </c>
       <c r="T5">
-        <v>1.77801554252021E-05</v>
+        <v>0.4121186669506279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +788,40 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I6">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J6">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>19.48350866666667</v>
+        <v>20.343383</v>
       </c>
       <c r="N6">
-        <v>58.450526</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O6">
-        <v>0.3081250754721726</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P6">
-        <v>0.3081250754721727</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q6">
-        <v>467.0442129939025</v>
+        <v>487.656482485814</v>
       </c>
       <c r="R6">
-        <v>4203.397916945123</v>
+        <v>4388.908342372326</v>
       </c>
       <c r="S6">
-        <v>0.2966520063636713</v>
+        <v>0.239678192366946</v>
       </c>
       <c r="T6">
-        <v>0.2966520063636714</v>
+        <v>0.239678192366946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I7">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J7">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.343383</v>
+        <v>25.035323</v>
       </c>
       <c r="N7">
-        <v>61.03014899999999</v>
+        <v>75.105969</v>
       </c>
       <c r="O7">
-        <v>0.3217236961512192</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P7">
-        <v>0.3217236961512193</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q7">
-        <v>487.6564824858139</v>
+        <v>600.1281867463339</v>
       </c>
       <c r="R7">
-        <v>4388.908342372325</v>
+        <v>5401.153680717005</v>
       </c>
       <c r="S7">
-        <v>0.3097442809928487</v>
+        <v>0.2949568890268953</v>
       </c>
       <c r="T7">
-        <v>0.3097442809928488</v>
+        <v>0.2949568890268953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.971258</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H8">
-        <v>71.91377399999999</v>
+        <v>1.881802</v>
       </c>
       <c r="I8">
-        <v>0.9627648963950115</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J8">
-        <v>0.9627648963950115</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +924,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.275017</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N8">
-        <v>69.825051</v>
+        <v>104.939308</v>
       </c>
       <c r="O8">
-        <v>0.3680864926557428</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P8">
-        <v>0.3680864926557428</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q8">
-        <v>557.9314374613859</v>
+        <v>21.94166663033511</v>
       </c>
       <c r="R8">
-        <v>5021.382937152473</v>
+        <v>197.474999673016</v>
       </c>
       <c r="S8">
-        <v>0.3543807539661094</v>
+        <v>0.01078410558323675</v>
       </c>
       <c r="T8">
-        <v>0.3543807539661094</v>
+        <v>0.01078410558323675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.971258</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H9">
-        <v>71.91377399999999</v>
+        <v>1.881802</v>
       </c>
       <c r="I9">
-        <v>0.9627648963950115</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J9">
-        <v>0.9627648963950115</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1305583333333333</v>
+        <v>20.343383</v>
       </c>
       <c r="N9">
-        <v>0.391675</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O9">
-        <v>0.002064735720865253</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P9">
-        <v>0.002064735720865253</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q9">
-        <v>3.129647492383333</v>
+        <v>12.76073960538867</v>
       </c>
       <c r="R9">
-        <v>28.16682743145</v>
+        <v>114.846656448498</v>
       </c>
       <c r="S9">
-        <v>0.001987855072381914</v>
+        <v>0.006271773495749281</v>
       </c>
       <c r="T9">
-        <v>0.001987855072381915</v>
+        <v>0.006271773495749281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,232 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7126843333333334</v>
+        <v>0.6272673333333333</v>
       </c>
       <c r="H10">
-        <v>2.138053</v>
+        <v>1.881802</v>
       </c>
       <c r="I10">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="J10">
-        <v>0.02862375676503981</v>
+        <v>0.0247741565773216</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>19.48350866666667</v>
+        <v>25.035323</v>
       </c>
       <c r="N10">
-        <v>58.450526</v>
+        <v>75.105969</v>
       </c>
       <c r="O10">
-        <v>0.3081250754721726</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P10">
-        <v>0.3081250754721727</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q10">
-        <v>13.88559138509756</v>
+        <v>15.70384029734867</v>
       </c>
       <c r="R10">
-        <v>124.970322465878</v>
+        <v>141.334562676138</v>
       </c>
       <c r="S10">
-        <v>0.008819697213525003</v>
+        <v>0.00771827749833557</v>
       </c>
       <c r="T10">
-        <v>0.008819697213525005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.7126843333333334</v>
-      </c>
-      <c r="H11">
-        <v>2.138053</v>
-      </c>
-      <c r="I11">
-        <v>0.02862375676503981</v>
-      </c>
-      <c r="J11">
-        <v>0.02862375676503981</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>20.343383</v>
-      </c>
-      <c r="N11">
-        <v>61.03014899999999</v>
-      </c>
-      <c r="O11">
-        <v>0.3217236961512192</v>
-      </c>
-      <c r="P11">
-        <v>0.3217236961512193</v>
-      </c>
-      <c r="Q11">
-        <v>14.49841035109967</v>
-      </c>
-      <c r="R11">
-        <v>130.485693159897</v>
-      </c>
-      <c r="S11">
-        <v>0.009208940824182074</v>
-      </c>
-      <c r="T11">
-        <v>0.009208940824182076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.7126843333333334</v>
-      </c>
-      <c r="H12">
-        <v>2.138053</v>
-      </c>
-      <c r="I12">
-        <v>0.02862375676503981</v>
-      </c>
-      <c r="J12">
-        <v>0.02862375676503981</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>23.275017</v>
-      </c>
-      <c r="N12">
-        <v>69.825051</v>
-      </c>
-      <c r="O12">
-        <v>0.3680864926557428</v>
-      </c>
-      <c r="P12">
-        <v>0.3680864926557428</v>
-      </c>
-      <c r="Q12">
-        <v>16.587739973967</v>
-      </c>
-      <c r="R12">
-        <v>149.289659765703</v>
-      </c>
-      <c r="S12">
-        <v>0.0105360182342746</v>
-      </c>
-      <c r="T12">
-        <v>0.0105360182342746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7126843333333334</v>
-      </c>
-      <c r="H13">
-        <v>2.138053</v>
-      </c>
-      <c r="I13">
-        <v>0.02862375676503981</v>
-      </c>
-      <c r="J13">
-        <v>0.02862375676503981</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.1305583333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.391675</v>
-      </c>
-      <c r="O13">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="P13">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="Q13">
-        <v>0.09304687875277778</v>
-      </c>
-      <c r="R13">
-        <v>0.8374219087750001</v>
-      </c>
-      <c r="S13">
-        <v>5.910049305813614E-05</v>
-      </c>
-      <c r="T13">
-        <v>5.910049305813614E-05</v>
+        <v>0.007718277498335572</v>
       </c>
     </row>
   </sheetData>
